--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P10_trail5 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P10_trail5 Features.xlsx
@@ -3692,7 +3692,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3703,29 +3703,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3746,115 +3744,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3871,72 +3859,66 @@
         <v>3.382766939791318e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.3803900430478786</v>
+        <v>1.946430446223042e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.9936825445831214</v>
+        <v>2.358775726139933e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.946430446223042e-07</v>
+        <v>0.06853089567126035</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.358775726139933e-06</v>
+        <v>0.2703749818447101</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.06853089567126035</v>
+        <v>0.07770390176003088</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2703749818447101</v>
+        <v>1.864201712462797</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.07770390176003088</v>
+        <v>1.800742386532233</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.840320031324049</v>
+        <v>4.3781391633913</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.800742386532233</v>
+        <v>4.301490662992737e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.3781391633913</v>
+        <v>359413681.6991773</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>4.301490662992737e-16</v>
+        <v>3.316926662386054e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>359413681.6991773</v>
+        <v>55.56587979021451</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>3.316926662386054e-07</v>
+        <v>0.0001490233959272543</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>55.56587979021451</v>
+        <v>8.413991217782593</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001490233959272543</v>
+        <v>1.438261202330344</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.413991217782593</v>
+        <v>0.01055014830420261</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.438261202330344</v>
+        <v>3.122906232335215</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01055014830420261</v>
+        <v>0.9611885221129587</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.122906232335215</v>
+        <v>1.536642189235065</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9611885221129587</v>
+        <v>45</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.536642189235065</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2527334632164262</v>
       </c>
     </row>
@@ -3951,72 +3933,66 @@
         <v>3.069498707428437e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.06494612250576325</v>
+        <v>1.580912086278425e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.03394501943537342</v>
+        <v>2.360785255919857e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.580912086278425e-07</v>
+        <v>0.05638381317400078</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.360785255919857e-06</v>
+        <v>0.2598900456189012</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.05638381317400078</v>
+        <v>0.07065042403356747</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2598900456189012</v>
+        <v>1.861410249776676</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.07065042403356747</v>
+        <v>1.866021297084337</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.841657752725218</v>
+        <v>4.383496000180513</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.866021297084337</v>
+        <v>3.620066437259761e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.383496000180513</v>
+        <v>441629993.7114134</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3.620066437259761e-16</v>
+        <v>2.698496651594427e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>441629993.7114134</v>
+        <v>70.6047083598109</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.698496651594427e-07</v>
+        <v>0.0001347004086683522</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>70.6047083598109</v>
+        <v>8.633963787431449</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001347004086683522</v>
+        <v>1.349315580192751</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.633963787431449</v>
+        <v>0.01004128650727413</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.349315580192751</v>
+        <v>3.182010555531668</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01004128650727413</v>
+        <v>0.9609185118526787</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.182010555531668</v>
+        <v>1.544569193985575</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9609185118526787</v>
+        <v>62</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.544569193985575</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2876315103190382</v>
       </c>
     </row>
@@ -4031,72 +4007,66 @@
         <v>2.894141727895144e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.2695126752514528</v>
+        <v>1.296421053244739e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.2065833533709034</v>
+        <v>2.362283469522883e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.296421053244739e-07</v>
+        <v>0.04471880250517271</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.362283469522883e-06</v>
+        <v>0.2478523174671954</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.04471880250517271</v>
+        <v>0.06338195089785627</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2478523174671954</v>
+        <v>1.8524064529422</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.06338195089785627</v>
+        <v>1.839656064699343</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.835724993035113</v>
+        <v>4.530829639725599</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.839656064699343</v>
+        <v>3.263511861393675e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.530829639725599</v>
+        <v>490550376.1255114</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>3.263511861393675e-16</v>
+        <v>2.41867857448588e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>490550376.1255114</v>
+        <v>78.53304223172179</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.41867857448588e-07</v>
+        <v>0.000129421746401405</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>78.53304223172179</v>
+        <v>9.962558145366588</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.000129421746401405</v>
+        <v>1.211548450303771</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.962558145366588</v>
+        <v>0.01284544027121005</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.211548450303771</v>
+        <v>3.100495786776722</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01284544027121005</v>
+        <v>0.9598758901799769</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.100495786776722</v>
+        <v>1.558175064947988</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9598758901799769</v>
+        <v>62</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.558175064947988</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.3391570397095532</v>
       </c>
     </row>
@@ -4111,72 +4081,66 @@
         <v>2.806920259665521e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.3071834426594364</v>
+        <v>1.125297488984873e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.1670960442806826</v>
+        <v>2.363405930744796e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.125297488984873e-07</v>
+        <v>0.03429623897276127</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.363405930744796e-06</v>
+        <v>0.2357510782935513</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.03429623897276127</v>
+        <v>0.05671985287147956</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2357510782935513</v>
+        <v>1.848319308348263</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.05671985287147956</v>
+        <v>2.019042937495168</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.831566223089602</v>
+        <v>4.200539161096158</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.019042937495168</v>
+        <v>3.066208205893303e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.200539161096158</v>
+        <v>520725233.6515076</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>3.066208205893303e-16</v>
+        <v>2.27809244639234e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>520725233.6515076</v>
+        <v>83.14169776566</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.27809244639234e-07</v>
+        <v>0.0001341153207566115</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>83.14169776566</v>
+        <v>10.10136975702246</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001341153207566115</v>
+        <v>1.250633508770424</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>10.10136975702246</v>
+        <v>0.0136848149711427</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.250633508770424</v>
+        <v>3.171569604480011</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.0136848149711427</v>
+        <v>0.9596763329868784</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.171569604480011</v>
+        <v>1.542205720997091</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9596763329868784</v>
+        <v>67</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.542205720997091</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.3675405377722304</v>
       </c>
     </row>
@@ -4191,72 +4155,66 @@
         <v>2.772245134486175e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.2702929467765031</v>
+        <v>1.125297488984873e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.110076668122328</v>
+        <v>2.364217425285092e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.125297488984873e-07</v>
+        <v>0.02410805416356494</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.364217425285092e-06</v>
+        <v>0.2242075071414428</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.02410805416356494</v>
+        <v>0.05082841942615563</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2242075071414428</v>
+        <v>1.855181246517598</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.05082841942615563</v>
+        <v>2.15770488785838</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.845378754338057</v>
+        <v>4.086380774620522</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.15770488785838</v>
+        <v>3.239918254418578e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.086380774620522</v>
+        <v>510079843.9760399</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>3.239918254418578e-16</v>
+        <v>2.333577016565281e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>510079843.9760399</v>
+        <v>84.29666203435336</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>2.333577016565281e-07</v>
+        <v>0.0001476894357831062</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>84.29666203435336</v>
+        <v>9.136567795026933</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001476894357831062</v>
+        <v>1.513509640783073</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.136567795026933</v>
+        <v>0.01232865198972868</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.513509640783073</v>
+        <v>3.243463314816316</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01232865198972868</v>
+        <v>0.9605711515652052</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.243463314816316</v>
+        <v>1.513980976305511</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9605711515652052</v>
+        <v>62</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.513980976305511</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.3866088632388328</v>
       </c>
     </row>
@@ -4271,72 +4229,66 @@
         <v>2.763336392929346e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.2227299323135907</v>
+        <v>1.125297488984873e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.09786307113831016</v>
+        <v>2.364760444024468e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.125297488984873e-07</v>
+        <v>0.01567476262270016</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.364760444024468e-06</v>
+        <v>0.2163489745126787</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.01567476262270016</v>
+        <v>0.04704178297892916</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2163489745126787</v>
+        <v>1.861782603365823</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.04704178297892916</v>
+        <v>1.97902794973047</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.857347936550817</v>
+        <v>4.203365393038069</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.97902794973047</v>
+        <v>2.292418074501888e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.203365393038069</v>
+        <v>725927138.1207544</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>2.292418074501888e-16</v>
+        <v>1.641078906144052e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>725927138.1207544</v>
+        <v>120.803603380755</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.641078906144052e-07</v>
+        <v>0.0001227557285571408</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>120.803603380755</v>
+        <v>9.170084506464875</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001227557285571408</v>
+        <v>1.491398338264598</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.170084506464875</v>
+        <v>0.01032258443673504</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.491398338264598</v>
+        <v>3.335364343695396</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01032258443673504</v>
+        <v>0.9597794934600943</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.335364343695396</v>
+        <v>1.514723414262592</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9597794934600943</v>
+        <v>71</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.514723414262592</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>71</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.4550288369988305</v>
       </c>
     </row>
@@ -4713,7 +4665,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.327067145365312</v>
+        <v>1.31917410146823</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.658026239674543</v>
@@ -4802,7 +4754,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.328015886208036</v>
+        <v>1.318287239274567</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.674737494740752</v>
@@ -4891,7 +4843,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.44872139775419</v>
+        <v>1.436408796150223</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.256494989056264</v>
@@ -4980,7 +4932,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.49347396252047</v>
+        <v>1.475945824261172</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.079092470413789</v>
@@ -5069,7 +5021,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.461538063302915</v>
+        <v>1.450188697730048</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.310662419174036</v>
@@ -5158,7 +5110,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.477917254740413</v>
+        <v>1.467693955240931</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.226044692266384</v>
@@ -5247,7 +5199,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.490915303165805</v>
+        <v>1.483726823164943</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.428596316854842</v>
@@ -5336,7 +5288,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.481840430776805</v>
+        <v>1.476794510885581</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.680964637383682</v>
@@ -5425,7 +5377,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.521571863828397</v>
+        <v>1.508537559067826</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.271746810887891</v>
@@ -5514,7 +5466,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.502970085192256</v>
+        <v>1.498433618457135</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.341877218613318</v>
@@ -5603,7 +5555,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.498469061721326</v>
+        <v>1.493051748775537</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.35182770372034</v>
@@ -5692,7 +5644,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.504294763171012</v>
+        <v>1.496031029600774</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.327722767392972</v>
@@ -5781,7 +5733,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.504251530830462</v>
+        <v>1.49872811422231</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.274252361076104</v>
@@ -5870,7 +5822,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.525802464875751</v>
+        <v>1.510798357003712</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.300349459564557</v>
@@ -5959,7 +5911,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.516158490612305</v>
+        <v>1.517329264949114</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.329097993446072</v>
@@ -6048,7 +6000,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.524241286535772</v>
+        <v>1.521490226164552</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.44840297443887</v>
@@ -6137,7 +6089,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.501005237374009</v>
+        <v>1.502041011141299</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.500800822188398</v>
@@ -6226,7 +6178,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.486361826483219</v>
+        <v>1.486409984939281</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.41162949752414</v>
@@ -6315,7 +6267,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.473162618049714</v>
+        <v>1.474491878787615</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.430696650831687</v>
@@ -6404,7 +6356,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.477173568637303</v>
+        <v>1.476575750692771</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.507370948935012</v>
@@ -6493,7 +6445,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.475984918919983</v>
+        <v>1.47496285511549</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.269306132720135</v>
@@ -6582,7 +6534,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.491656892724945</v>
+        <v>1.492090095525696</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.384498672972086</v>
@@ -6671,7 +6623,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.503220478126023</v>
+        <v>1.50249785651985</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.282519309811505</v>
@@ -6760,7 +6712,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.506391102570531</v>
+        <v>1.511447297051654</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.446505389862824</v>
@@ -6849,7 +6801,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.537024386461262</v>
+        <v>1.540222127939471</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.636063252587526</v>
@@ -6938,7 +6890,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.517720318498495</v>
+        <v>1.5222545608271</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.708970233582672</v>
@@ -7027,7 +6979,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.514603860061222</v>
+        <v>1.523302047308313</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.509185400774672</v>
@@ -7116,7 +7068,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.538044245508348</v>
+        <v>1.542353038524339</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.551597271380674</v>
@@ -7205,7 +7157,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.561377283692282</v>
+        <v>1.561163147655967</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.479680669423628</v>
@@ -7294,7 +7246,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.510395653510068</v>
+        <v>1.516673732602859</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.576455162855858</v>
@@ -7383,7 +7335,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.526750292306917</v>
+        <v>1.531581583442183</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.509507577681709</v>
@@ -7472,7 +7424,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.528745132555269</v>
+        <v>1.527820515905286</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.47394031634741</v>
@@ -7561,7 +7513,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.542441442325509</v>
+        <v>1.546820454056681</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.365535732289232</v>
@@ -7650,7 +7602,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.575620160770604</v>
+        <v>1.573584158779617</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.265420511455897</v>
@@ -7739,7 +7691,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.587049035870574</v>
+        <v>1.585156077680379</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.486947052500982</v>
@@ -7828,7 +7780,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.589666091405165</v>
+        <v>1.585689073509468</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.460853453494579</v>
@@ -7917,7 +7869,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.590718306386023</v>
+        <v>1.586073231912306</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.436881537780036</v>
@@ -8006,7 +7958,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.604504006694285</v>
+        <v>1.594003124096228</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.450108054396684</v>
@@ -8095,7 +8047,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.611943011352782</v>
+        <v>1.601104857927687</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.473864125269815</v>
@@ -8184,7 +8136,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.614110704308569</v>
+        <v>1.602042805240437</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.275754143252902</v>
@@ -8273,7 +8225,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.620058413243827</v>
+        <v>1.603765822166684</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.399479780864913</v>
@@ -8362,7 +8314,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.629081166554712</v>
+        <v>1.610819888298205</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.574249499001499</v>
@@ -8451,7 +8403,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.623133447353451</v>
+        <v>1.605596337361168</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.456579956305606</v>
@@ -8540,7 +8492,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.604528788817472</v>
+        <v>1.591876040733307</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.197531435067533</v>
@@ -8629,7 +8581,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.654983262885301</v>
+        <v>1.632638846896065</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.58892101524525</v>
@@ -8718,7 +8670,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.656992891144631</v>
+        <v>1.639333700898468</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.439295558217405</v>
@@ -8807,7 +8759,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.676807383998938</v>
+        <v>1.66265537229783</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.424350218155376</v>
@@ -8896,7 +8848,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.685148448436457</v>
+        <v>1.668000193587192</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.531216735092775</v>
@@ -8985,7 +8937,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.662188629821649</v>
+        <v>1.642890677405165</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.464342292649667</v>
@@ -9074,7 +9026,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.684441688588189</v>
+        <v>1.666218582910968</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.50911400032053</v>
@@ -9163,7 +9115,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.685210864273686</v>
+        <v>1.671641367319322</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.526594022394706</v>
@@ -9449,7 +9401,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.529030765622726</v>
+        <v>1.542768616826614</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.18122381156476</v>
@@ -9538,7 +9490,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.525312859129507</v>
+        <v>1.536412129707513</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.127420294985516</v>
@@ -9627,7 +9579,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.586035028887449</v>
+        <v>1.59193365854661</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.391727785354098</v>
@@ -9716,7 +9668,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.608366086248805</v>
+        <v>1.61008713714052</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.135604300613449</v>
@@ -9805,7 +9757,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.60119568324781</v>
+        <v>1.604010039441549</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.227129440569557</v>
@@ -9894,7 +9846,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.611391814264652</v>
+        <v>1.612044361086513</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.217339822820866</v>
@@ -9983,7 +9935,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.633380645697821</v>
+        <v>1.633681708193018</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.964964856283093</v>
@@ -10072,7 +10024,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.611438115164804</v>
+        <v>1.616414378532685</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.333787644701055</v>
@@ -10161,7 +10113,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.615955454245446</v>
+        <v>1.615924576417983</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.999147129726957</v>
@@ -10250,7 +10202,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.602392370130238</v>
+        <v>1.609510215853631</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.310319840381316</v>
@@ -10339,7 +10291,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.60257107345566</v>
+        <v>1.6099524453287</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.286803437264538</v>
@@ -10428,7 +10380,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.596317552303051</v>
+        <v>1.597415742822396</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.011048981909154</v>
@@ -10517,7 +10469,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.596705463882976</v>
+        <v>1.599940840874136</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.183226026087121</v>
@@ -10606,7 +10558,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.589680077320436</v>
+        <v>1.587567271375581</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.72681580293917</v>
@@ -10695,7 +10647,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.579688194792456</v>
+        <v>1.579881690608142</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.938468731667528</v>
@@ -10784,7 +10736,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.574495089807616</v>
+        <v>1.568016405182656</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.073826470582321</v>
@@ -10873,7 +10825,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.576530276267533</v>
+        <v>1.570848785927016</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.149616882698941</v>
@@ -10962,7 +10914,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.578652785152145</v>
+        <v>1.572435947882699</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.169074766772383</v>
@@ -11051,7 +11003,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.574022215804142</v>
+        <v>1.561107096358102</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.002541247800412</v>
@@ -11140,7 +11092,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.576292305200283</v>
+        <v>1.560318383672413</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.234299364844474</v>
@@ -11229,7 +11181,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.579375513784066</v>
+        <v>1.562816838267665</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.636422984126604</v>
@@ -11318,7 +11270,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.593572058719482</v>
+        <v>1.572923224263126</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.455095901874026</v>
@@ -11407,7 +11359,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.593386684012584</v>
+        <v>1.575418200073063</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.783067247574099</v>
@@ -11496,7 +11448,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.588805976814422</v>
+        <v>1.5756135794319</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.613639491801091</v>
@@ -11585,7 +11537,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.592495201987743</v>
+        <v>1.570219262259533</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.708758835789865</v>
@@ -11674,7 +11626,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.588995546786164</v>
+        <v>1.568844045048025</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.674437050753597</v>
@@ -11763,7 +11715,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.581583385541198</v>
+        <v>1.564960604959231</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.60238593172162</v>
@@ -11852,7 +11804,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.587405231550809</v>
+        <v>1.564155600582753</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.716272666605597</v>
@@ -11941,7 +11893,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.598934962579988</v>
+        <v>1.575719533391474</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.638566800900974</v>
@@ -12030,7 +11982,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.550812470542032</v>
+        <v>1.538657332386202</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.374093707325735</v>
@@ -12119,7 +12071,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.547584423954875</v>
+        <v>1.543997869049113</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.400773206813318</v>
@@ -12208,7 +12160,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.541842306402406</v>
+        <v>1.535523140689709</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.385209756635609</v>
@@ -12297,7 +12249,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.535505919809209</v>
+        <v>1.535213445602623</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.347313666151265</v>
@@ -12386,7 +12338,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.537850806476059</v>
+        <v>1.54043734191012</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.299918495655454</v>
@@ -12475,7 +12427,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.554170813003968</v>
+        <v>1.55835072811416</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.357338429891973</v>
@@ -12564,7 +12516,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.567400780831453</v>
+        <v>1.573622113849813</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.22384883072506</v>
@@ -12653,7 +12605,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.559075048393366</v>
+        <v>1.565796119471168</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.262889135578011</v>
@@ -12742,7 +12694,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.575255470486651</v>
+        <v>1.578150171770514</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.347145124334443</v>
@@ -12831,7 +12783,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.582027438282329</v>
+        <v>1.582486594488319</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.340668867625381</v>
@@ -12920,7 +12872,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.580487081671594</v>
+        <v>1.585593962493655</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.276052814824962</v>
@@ -13009,7 +12961,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.590219543533264</v>
+        <v>1.586552982597417</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.264747620241906</v>
@@ -13098,7 +13050,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.593974414288329</v>
+        <v>1.590786607876237</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.328253680802034</v>
@@ -13187,7 +13139,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.594638734242847</v>
+        <v>1.595328807159211</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.312117689299495</v>
@@ -13276,7 +13228,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.592684538498317</v>
+        <v>1.593479441492833</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.19294047526611</v>
@@ -13365,7 +13317,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.659367668670439</v>
+        <v>1.647512583384487</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.038247625186378</v>
@@ -13454,7 +13406,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.665850919939986</v>
+        <v>1.654637194695161</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.45933494672751</v>
@@ -13543,7 +13495,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.669563920815912</v>
+        <v>1.658468274198641</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.117922766815118</v>
@@ -13632,7 +13584,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.680422577267468</v>
+        <v>1.662306364346311</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.20574065168534</v>
@@ -13721,7 +13673,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.654350360090191</v>
+        <v>1.636545448495591</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.581658310670769</v>
@@ -13810,7 +13762,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.655068978468956</v>
+        <v>1.636309194426837</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.411447805693764</v>
@@ -13899,7 +13851,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.662051294775644</v>
+        <v>1.634969041295983</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.562096656104766</v>
@@ -14185,7 +14137,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.512163966643807</v>
+        <v>1.491794904739422</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.527528063607262</v>
@@ -14274,7 +14226,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.520681618886173</v>
+        <v>1.498400693435955</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.495041727169657</v>
@@ -14363,7 +14315,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.528729112568573</v>
+        <v>1.495536681307047</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.334921826257287</v>
@@ -14452,7 +14404,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.53725068773888</v>
+        <v>1.503544570865575</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.450908452387365</v>
@@ -14541,7 +14493,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.511837601714362</v>
+        <v>1.480176516854539</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.52372166363001</v>
@@ -14630,7 +14582,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.519719031628232</v>
+        <v>1.484875423839721</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.50714184179811</v>
@@ -14719,7 +14671,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.523489846412816</v>
+        <v>1.492530996722333</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.589318936937803</v>
@@ -14808,7 +14760,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.532110205931741</v>
+        <v>1.497314742790042</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.845703327089764</v>
@@ -14897,7 +14849,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.559408460936637</v>
+        <v>1.518117281518007</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.482675136412146</v>
@@ -14986,7 +14938,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.546018498866338</v>
+        <v>1.515256281194835</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.904803774164337</v>
@@ -15075,7 +15027,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.545208314605231</v>
+        <v>1.515277661738818</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.025666468521808</v>
@@ -15164,7 +15116,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.54802107211558</v>
+        <v>1.520045493035438</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.931980380877153</v>
@@ -15253,7 +15205,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.552152726087033</v>
+        <v>1.526380821343221</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.761101928467832</v>
@@ -15342,7 +15294,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.562889299410356</v>
+        <v>1.533657419982739</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.873906840609425</v>
@@ -15431,7 +15383,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.562713807509987</v>
+        <v>1.53444717281755</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.675082662742171</v>
@@ -15520,7 +15472,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.564361270219715</v>
+        <v>1.536695482450728</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.99847411443426</v>
@@ -15609,7 +15561,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.555430571299424</v>
+        <v>1.528277711844096</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.992437687170922</v>
@@ -15698,7 +15650,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.543818062396628</v>
+        <v>1.520819641969323</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.707074117079406</v>
@@ -15787,7 +15739,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.537388223102789</v>
+        <v>1.512893675326131</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.986851343119894</v>
@@ -15876,7 +15828,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.540754805383955</v>
+        <v>1.517700774798324</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.059892235550213</v>
@@ -15965,7 +15917,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.545826052518846</v>
+        <v>1.522922751815467</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.745400535935953</v>
@@ -16054,7 +16006,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.544357563755011</v>
+        <v>1.522758092776486</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.918169684329603</v>
@@ -16143,7 +16095,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.549557007174871</v>
+        <v>1.526421103564588</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.656805365855087</v>
@@ -16232,7 +16184,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.542045759035359</v>
+        <v>1.522729370032556</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.812192914173694</v>
@@ -16321,7 +16273,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.563954257710503</v>
+        <v>1.544065111718965</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.096205498331383</v>
@@ -16410,7 +16362,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.557955666297856</v>
+        <v>1.534919571604847</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.813327061314346</v>
@@ -16499,7 +16451,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.558713871342222</v>
+        <v>1.534864754998899</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.126554830839598</v>
@@ -16588,7 +16540,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.564164910748641</v>
+        <v>1.538304497694967</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.114964751764445</v>
@@ -16677,7 +16629,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.576400597421358</v>
+        <v>1.551483839436032</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.931146842951025</v>
@@ -16766,7 +16718,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.566938876352092</v>
+        <v>1.547700281037779</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.147794190895765</v>
@@ -16855,7 +16807,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.575926205197065</v>
+        <v>1.554943516557309</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.038179616657119</v>
@@ -16944,7 +16896,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.572440904157158</v>
+        <v>1.550230641496702</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.134175534835899</v>
@@ -17033,7 +16985,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.589183293015173</v>
+        <v>1.565586059041428</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.009043031904012</v>
@@ -17122,7 +17074,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.605734456670641</v>
+        <v>1.583446470550976</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.652375181820199</v>
@@ -17211,7 +17163,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.616386660399563</v>
+        <v>1.593514722935311</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.072794843569346</v>
@@ -17300,7 +17252,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.619625967032621</v>
+        <v>1.594282270452825</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.9194144402817</v>
@@ -17389,7 +17341,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.628904902834307</v>
+        <v>1.600786369339003</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.078898303185863</v>
@@ -17478,7 +17430,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.630447509831913</v>
+        <v>1.606656579791856</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.104471863386224</v>
@@ -17567,7 +17519,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.62005624578286</v>
+        <v>1.596413517901804</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.831191731443239</v>
@@ -17656,7 +17608,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.616414313625011</v>
+        <v>1.594313404168741</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.699817500550162</v>
@@ -17745,7 +17697,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.622687741588381</v>
+        <v>1.602497568354941</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.713299169976042</v>
@@ -17834,7 +17786,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.616028145856666</v>
+        <v>1.592954009291891</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.046130663074912</v>
@@ -17923,7 +17875,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.60988112602855</v>
+        <v>1.587441056152984</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.962329531309985</v>
@@ -18012,7 +17964,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.604864751442635</v>
+        <v>1.585457254453256</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.795535094003638</v>
@@ -18101,7 +18053,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.618407415655157</v>
+        <v>1.59174824794778</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.974978894262027</v>
@@ -18190,7 +18142,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.620972251680786</v>
+        <v>1.591538900752044</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.086518725675054</v>
@@ -18279,7 +18231,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.622850621650372</v>
+        <v>1.591841620936345</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.719480984026105</v>
@@ -18368,7 +18320,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.619229207929489</v>
+        <v>1.591355710449402</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.156179438221738</v>
@@ -18457,7 +18409,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.61443693284527</v>
+        <v>1.579666813437695</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.151016816315074</v>
@@ -18546,7 +18498,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.633537245097404</v>
+        <v>1.597119886332016</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.134957814577148</v>
@@ -18635,7 +18587,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.64351101312546</v>
+        <v>1.610104681881795</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.839091382985244</v>
@@ -18921,7 +18873,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.484135711212931</v>
+        <v>1.49038682149874</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.992477584100692</v>
@@ -19010,7 +18962,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.445092925569786</v>
+        <v>1.453421445258162</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.976561609318555</v>
@@ -19099,7 +19051,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.501568385307888</v>
+        <v>1.505986644468457</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.066562602704686</v>
@@ -19188,7 +19140,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.512882953852289</v>
+        <v>1.518831274952113</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.969195817941439</v>
@@ -19277,7 +19229,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.504562934915083</v>
+        <v>1.505101367925654</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.947515805290276</v>
@@ -19366,7 +19318,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.494277862074104</v>
+        <v>1.49319445925449</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.006079836425264</v>
@@ -19455,7 +19407,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.525787544691681</v>
+        <v>1.521554941003522</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.190704121121347</v>
@@ -19544,7 +19496,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.54333495296478</v>
+        <v>1.535886508978548</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.251764058786366</v>
@@ -19633,7 +19585,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.552136210140415</v>
+        <v>1.543841109252559</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.122575266268616</v>
@@ -19722,7 +19674,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.547628183141974</v>
+        <v>1.539596959856786</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.309966248036402</v>
@@ -19811,7 +19763,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.549315424437682</v>
+        <v>1.541901002537093</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.295986171645081</v>
@@ -19900,7 +19852,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.542698206762472</v>
+        <v>1.531639231563886</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.268753479700445</v>
@@ -19989,7 +19941,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.546474192630521</v>
+        <v>1.532038571531128</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.263384786062884</v>
@@ -20078,7 +20030,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.544211815495896</v>
+        <v>1.525039674496848</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.301145885919952</v>
@@ -20167,7 +20119,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.52931455581369</v>
+        <v>1.515494066550025</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.292568474258943</v>
@@ -20256,7 +20208,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.572203856474362</v>
+        <v>1.552289466910586</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.379017880985633</v>
@@ -20345,7 +20297,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.618281804451654</v>
+        <v>1.591152159478267</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.121305935372014</v>
@@ -20434,7 +20386,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.604693479690467</v>
+        <v>1.580560397502054</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.302948481252457</v>
@@ -20523,7 +20475,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.602931557249338</v>
+        <v>1.579100218920438</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.386257847543727</v>
@@ -20612,7 +20564,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.617134488873492</v>
+        <v>1.591395616244976</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.387976069703055</v>
@@ -20701,7 +20653,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.633157021761682</v>
+        <v>1.602161701291839</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.156684538079045</v>
@@ -20790,7 +20742,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.630901942358004</v>
+        <v>1.604600784878258</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.221387108717919</v>
@@ -20879,7 +20831,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.626510645073119</v>
+        <v>1.602807848380505</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.244060463800453</v>
@@ -20968,7 +20920,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.643686717464958</v>
+        <v>1.618769775486309</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.190230670164045</v>
@@ -21057,7 +21009,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.644831739195794</v>
+        <v>1.618362465941638</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.225711927320963</v>
@@ -21146,7 +21098,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.647056234083407</v>
+        <v>1.615369313422222</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.351778402608346</v>
@@ -21235,7 +21187,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.643898845581713</v>
+        <v>1.616450705895778</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.284968369375163</v>
@@ -21324,7 +21276,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.644662241203767</v>
+        <v>1.620999450072334</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.520335475040997</v>
@@ -21413,7 +21365,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.657032208999316</v>
+        <v>1.629967761908203</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.279008927768552</v>
@@ -21502,7 +21454,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.657162620561678</v>
+        <v>1.628489313434359</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.844952035829861</v>
@@ -21591,7 +21543,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.66642938373737</v>
+        <v>1.639009857968829</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.514900478950068</v>
@@ -21680,7 +21632,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.675298695067227</v>
+        <v>1.640568765873037</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.598117288885723</v>
@@ -21769,7 +21721,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.668389159675831</v>
+        <v>1.63329633833293</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.839908263143284</v>
@@ -21858,7 +21810,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.666180205269231</v>
+        <v>1.633050454814521</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.854906322665846</v>
@@ -21947,7 +21899,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.660404275772605</v>
+        <v>1.631011562037771</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.993624370615867</v>
@@ -22036,7 +21988,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.651968586703596</v>
+        <v>1.620860397842746</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.804827796848472</v>
@@ -22125,7 +22077,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.652676211800794</v>
+        <v>1.62108118894176</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.870853155699899</v>
@@ -22214,7 +22166,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.668282233194223</v>
+        <v>1.640216673306378</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.013463229217361</v>
@@ -22303,7 +22255,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.665859050183325</v>
+        <v>1.635061707278944</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.672903686713638</v>
@@ -22392,7 +22344,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.668212621641804</v>
+        <v>1.635403605406462</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.81532703582685</v>
@@ -22481,7 +22433,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.664294517801493</v>
+        <v>1.637542405168464</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.967014980287887</v>
@@ -22570,7 +22522,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.673494529273625</v>
+        <v>1.643042884363535</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.060106753979306</v>
@@ -22659,7 +22611,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.649867218791337</v>
+        <v>1.605847535875973</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.293267719522369</v>
@@ -22748,7 +22700,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.596117460396888</v>
+        <v>1.580316266078457</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.257397570904729</v>
@@ -22837,7 +22789,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.604588967201144</v>
+        <v>1.590884254997499</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.249877394346112</v>
@@ -22926,7 +22878,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.583748336359348</v>
+        <v>1.57603000464928</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.296890710081068</v>
@@ -23015,7 +22967,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.552276229931092</v>
+        <v>1.548477822833773</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.275845164032648</v>
@@ -23104,7 +23056,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.549113093533656</v>
+        <v>1.549111769328599</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.289431037677272</v>
@@ -23193,7 +23145,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.550358746207946</v>
+        <v>1.545546288880964</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.316871421692488</v>
@@ -23282,7 +23234,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.556814652236754</v>
+        <v>1.551355575880642</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.325584468468662</v>
@@ -23371,7 +23323,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.564629928460599</v>
+        <v>1.562639937475698</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.314373908610587</v>
@@ -23657,7 +23609,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.572133193049574</v>
+        <v>1.545798798157283</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.189625711891371</v>
@@ -23746,7 +23698,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.566878282235216</v>
+        <v>1.542105538549019</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.144334293523251</v>
@@ -23835,7 +23787,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.592025488496638</v>
+        <v>1.563671521640479</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.04829739711359</v>
@@ -23924,7 +23876,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.610362078243823</v>
+        <v>1.578532673618799</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.185214568081257</v>
@@ -24013,7 +23965,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.613488940251827</v>
+        <v>1.579714302123579</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.088698298286559</v>
@@ -24102,7 +24054,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.6245639788447</v>
+        <v>1.591672046589027</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.174549149407676</v>
@@ -24191,7 +24143,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.668403888913175</v>
+        <v>1.628327910331757</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.895211147652348</v>
@@ -24280,7 +24232,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.653639875200823</v>
+        <v>1.620824357181421</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.786131133472328</v>
@@ -24369,7 +24321,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.665152885384191</v>
+        <v>1.628647822315016</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.812052419456518</v>
@@ -24458,7 +24410,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.66327448233985</v>
+        <v>1.633215181188797</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.783305111942314</v>
@@ -24547,7 +24499,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.668212977958414</v>
+        <v>1.634883602974681</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.639996360223262</v>
@@ -24636,7 +24588,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.662293223164419</v>
+        <v>1.629386533190701</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.517576575907906</v>
@@ -24725,7 +24677,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.652070025976782</v>
+        <v>1.615694971455639</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.691448359241761</v>
@@ -24814,7 +24766,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.640953973245328</v>
+        <v>1.608789083105643</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.492585501588619</v>
@@ -24903,7 +24855,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.635114794741429</v>
+        <v>1.60282534842299</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.363768224739628</v>
@@ -24992,7 +24944,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.639485838255974</v>
+        <v>1.596869882341236</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.942884435490125</v>
@@ -25081,7 +25033,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.615655854590588</v>
+        <v>1.583315253472839</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.146967545683394</v>
@@ -25170,7 +25122,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.616368224620804</v>
+        <v>1.584552342239439</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.887480519481269</v>
@@ -25259,7 +25211,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.614991494086634</v>
+        <v>1.57988803645041</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.986003859533764</v>
@@ -25348,7 +25300,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.619344057597817</v>
+        <v>1.582171145282129</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.107275974428022</v>
@@ -25437,7 +25389,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.607551495043847</v>
+        <v>1.574580419899644</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.055407743273291</v>
@@ -25526,7 +25478,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.603378821697546</v>
+        <v>1.57277854647558</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.787288175312438</v>
@@ -25615,7 +25567,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.612419526993716</v>
+        <v>1.580732201297445</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.000242509570923</v>
@@ -25704,7 +25656,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.619689644476843</v>
+        <v>1.586901772033888</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.86386727520459</v>
@@ -25793,7 +25745,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.628317652048702</v>
+        <v>1.593017741549203</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.835636257742583</v>
@@ -25882,7 +25834,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.635869766166619</v>
+        <v>1.601477002919443</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.646590500046778</v>
@@ -25971,7 +25923,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.628841050320658</v>
+        <v>1.599422408464768</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.887870402710026</v>
@@ -26060,7 +26012,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.639848962642288</v>
+        <v>1.609212698269455</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.939629753992025</v>
@@ -26149,7 +26101,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.658416042723576</v>
+        <v>1.627657483402983</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.837980720428257</v>
@@ -26238,7 +26190,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.621514589488733</v>
+        <v>1.606743662541821</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.620247901452493</v>
@@ -26327,7 +26279,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.619683988126727</v>
+        <v>1.606523373136432</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.61224554681014</v>
@@ -26416,7 +26368,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.632715968994613</v>
+        <v>1.613537671968256</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.564102950995687</v>
@@ -26505,7 +26457,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.628782297843949</v>
+        <v>1.606525875815498</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.610211019443984</v>
@@ -26594,7 +26546,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.628065190615953</v>
+        <v>1.607374718594151</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.578851526328322</v>
@@ -26683,7 +26635,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.632196789872067</v>
+        <v>1.613995813426098</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.540007793760181</v>
@@ -26772,7 +26724,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.649152914309402</v>
+        <v>1.631513178198032</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.586112100184509</v>
@@ -26861,7 +26813,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.646591069086098</v>
+        <v>1.627837352601775</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.59707869108354</v>
@@ -26950,7 +26902,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.659853855407973</v>
+        <v>1.641267676288528</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.434622600024118</v>
@@ -27039,7 +26991,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.661402267887355</v>
+        <v>1.645770177683128</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.580247250162314</v>
@@ -27128,7 +27080,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.652398856056528</v>
+        <v>1.642400775724349</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.531631111311123</v>
@@ -27217,7 +27169,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.644352547537526</v>
+        <v>1.632723794540875</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.41055854154303</v>
@@ -27306,7 +27258,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.654325692197739</v>
+        <v>1.637410918049565</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.561763584969628</v>
@@ -27395,7 +27347,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.651472795102712</v>
+        <v>1.636515063120901</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.501272231263342</v>
@@ -27484,7 +27436,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.636186191144907</v>
+        <v>1.619882258564154</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.578905100145803</v>
@@ -27573,7 +27525,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.675025831600315</v>
+        <v>1.645162772462783</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.421871581115473</v>
@@ -27662,7 +27614,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.690776422264974</v>
+        <v>1.660073679075126</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.191762303647103</v>
@@ -27751,7 +27703,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.69526194635262</v>
+        <v>1.66138072099553</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.398329843883865</v>
@@ -27840,7 +27792,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.705374280790012</v>
+        <v>1.667415358984585</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.437222199689038</v>
@@ -27929,7 +27881,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.701790545212144</v>
+        <v>1.659219478489508</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.920498102809284</v>
@@ -28018,7 +27970,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.703752284193396</v>
+        <v>1.658980965085248</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.888485406905774</v>
@@ -28107,7 +28059,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.706003184335767</v>
+        <v>1.657340617316056</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.655989243026679</v>
@@ -28393,7 +28345,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.289160782972461</v>
+        <v>1.27308435875997</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.021973654923104</v>
@@ -28482,7 +28434,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.290718466212239</v>
+        <v>1.275199505761131</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.072928810321146</v>
@@ -28571,7 +28523,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.328929201052482</v>
+        <v>1.316765862851911</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.393015013684732</v>
@@ -28660,7 +28612,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.350241000009021</v>
+        <v>1.340734072018458</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.571132116595626</v>
@@ -28749,7 +28701,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.346237708577468</v>
+        <v>1.330763080496336</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.420386647599913</v>
@@ -28838,7 +28790,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.335733209528204</v>
+        <v>1.326583000096329</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.612879018454853</v>
@@ -28927,7 +28879,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.330132707159212</v>
+        <v>1.321510579121645</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.560168033352234</v>
@@ -29016,7 +28968,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.325060620187765</v>
+        <v>1.317598472462629</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.585175669449471</v>
@@ -29105,7 +29057,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.328999500138937</v>
+        <v>1.321999321835001</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.595582393722859</v>
@@ -29194,7 +29146,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.321295668866884</v>
+        <v>1.318871486481912</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.304483683855679</v>
@@ -29283,7 +29235,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.331573949604361</v>
+        <v>1.330159515406989</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.449477971867089</v>
@@ -29372,7 +29324,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.321751849524622</v>
+        <v>1.320082631261871</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.434949773813059</v>
@@ -29461,7 +29413,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.323157053404766</v>
+        <v>1.321976798599059</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.29723992028167</v>
@@ -29550,7 +29502,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.329117232198857</v>
+        <v>1.328482696441283</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.449270128948057</v>
@@ -29639,7 +29591,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.322919064491838</v>
+        <v>1.322674047255436</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.482711612439949</v>
@@ -29728,7 +29680,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.325693599341432</v>
+        <v>1.322946282579874</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.393085136368131</v>
@@ -29817,7 +29769,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.325193283850326</v>
+        <v>1.325894992366242</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.461629877614213</v>
@@ -29906,7 +29858,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.321394368988172</v>
+        <v>1.315596269652364</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.500386610712711</v>
@@ -29995,7 +29947,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.315568171058257</v>
+        <v>1.308500297877582</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.400853327801117</v>
@@ -30084,7 +30036,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.315513570457481</v>
+        <v>1.313415680877906</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.617211733249712</v>
@@ -30173,7 +30125,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.314200672091129</v>
+        <v>1.311146721935225</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.312104995157463</v>
@@ -30262,7 +30214,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.324656103419917</v>
+        <v>1.320245463196089</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.396964337481295</v>
@@ -30351,7 +30303,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.339361970585889</v>
+        <v>1.335595765923682</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.592436967563079</v>
@@ -30440,7 +30392,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.337893978633621</v>
+        <v>1.332427839100123</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.506427904086409</v>
@@ -30529,7 +30481,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.349701982168998</v>
+        <v>1.348627914217192</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.680080558914706</v>
@@ -30618,7 +30570,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.343869518251699</v>
+        <v>1.343613102496036</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.41940294870928</v>
@@ -30707,7 +30659,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.344763752655091</v>
+        <v>1.339907904350979</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.52219585480648</v>
@@ -30796,7 +30748,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.345668848156418</v>
+        <v>1.343330255417084</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.673852920858919</v>
@@ -30885,7 +30837,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.35515417524091</v>
+        <v>1.354117279712248</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.587181628726126</v>
@@ -30974,7 +30926,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.34623462393191</v>
+        <v>1.346345029891559</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.669926061238461</v>
@@ -31063,7 +31015,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.342802963676479</v>
+        <v>1.343706882645695</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.72919272980069</v>
@@ -31152,7 +31104,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.343839944943529</v>
+        <v>1.34188977609259</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.564412767821759</v>
@@ -31241,7 +31193,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.342756128298738</v>
+        <v>1.343456059241814</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.57891673359095</v>
@@ -31330,7 +31282,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.349555050697916</v>
+        <v>1.350169244329229</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.433743121393495</v>
@@ -31419,7 +31371,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.348326161730089</v>
+        <v>1.349430728004763</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.448088656874262</v>
@@ -31508,7 +31460,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.361196787752626</v>
+        <v>1.364280680818348</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.647962765507425</v>
@@ -31597,7 +31549,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.358028014433376</v>
+        <v>1.363605366986278</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.728563907701735</v>
@@ -31686,7 +31638,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.362502372449893</v>
+        <v>1.370556515502497</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.494231927707108</v>
@@ -31775,7 +31727,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.368003719290746</v>
+        <v>1.378297683071391</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.717867640466436</v>
@@ -31864,7 +31816,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.371214731501359</v>
+        <v>1.377934150522123</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.450444772297467</v>
@@ -31953,7 +31905,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.36729339597098</v>
+        <v>1.372492997885132</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.764861882684948</v>
@@ -32042,7 +31994,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.372925188836184</v>
+        <v>1.380127372861663</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.540646222166852</v>
@@ -32131,7 +32083,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.381009416331779</v>
+        <v>1.388841833089814</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.75720370403878</v>
@@ -32220,7 +32172,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.375993363105727</v>
+        <v>1.382064762181298</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.381172724419859</v>
@@ -32309,7 +32261,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.389533729233238</v>
+        <v>1.398776039661003</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.521217422207502</v>
@@ -32398,7 +32350,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.389012154483646</v>
+        <v>1.397783919397992</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.573663063030532</v>
@@ -32487,7 +32439,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.394744854817227</v>
+        <v>1.406846180816866</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.68772692856188</v>
@@ -32576,7 +32528,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.400917848454995</v>
+        <v>1.415826444584272</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.493637545487014</v>
@@ -32665,7 +32617,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.408857350663695</v>
+        <v>1.421485124230977</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.865028495941522</v>
@@ -32754,7 +32706,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.413565812209993</v>
+        <v>1.427959449607914</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.697389266904654</v>
@@ -32843,7 +32795,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.414732462639562</v>
+        <v>1.430296794229301</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.80367556704319</v>
